--- a/Src/DetailedSamples/Samples/Worksheet/Output/RowAccess.xlsx
+++ b/Src/DetailedSamples/Samples/Worksheet/Output/RowAccess.xlsx
@@ -2,35 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" activeTab="1" firstSheet="0"/>
+    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="R98097b9b5cc94bdb"/>
-    <sheet name="Xceed Trial License" sheetId="2" r:id="R6eb14daab0c94752"/>
+    <sheet name="Sheet1" sheetId="1" r:id="R5234cac56fa946e8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Row Access</t>
   </si>
   <si>
     <t xml:space="preserve">This row has a height of 30.</t>
   </si>
-  <si>
-    <t xml:space="preserve">This workbook was created using the trial version of Xceed Workbooks for .NET.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please contact sales@xceed.com if you are ready to purchase.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <color theme="1"/>
       <sz val="11"/>
@@ -40,12 +33,6 @@
       <b/>
       <color theme="1"/>
       <sz val="15.5"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF8C00"/>
-      <sz val="16"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -69,10 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="0">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -364,24 +350,4 @@
     </row>
   </sheetData>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>